--- a/documentos/Datos fijos.xlsx
+++ b/documentos/Datos fijos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62775977-33D8-458A-8659-8463BBD1211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A63D2-9462-4EBB-8592-B76F72CA37C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5E66E99B-3367-44EE-9783-6944D3DEB6D9}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{5E66E99B-3367-44EE-9783-6944D3DEB6D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>LIBRO DE SUELDOS DIGITAL - AFIP</t>
   </si>
@@ -256,98 +256,6 @@
 Formato: 2 dígitos enteros. </t>
   </si>
   <si>
-    <t>Base imponible 1</t>
-  </si>
-  <si>
-    <t>Base imponible 2</t>
-  </si>
-  <si>
-    <t>Base imponible 3</t>
-  </si>
-  <si>
-    <t>Base imponible 4</t>
-  </si>
-  <si>
-    <t>Base imponible 5</t>
-  </si>
-  <si>
-    <t>Base imponible 6</t>
-  </si>
-  <si>
-    <t>Base imponible 7</t>
-  </si>
-  <si>
-    <t>Base imponible 8</t>
-  </si>
-  <si>
-    <t>Base imponible 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes Previsionales
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Contribuciones previsionales e INSSJyP
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para  Contribuciones FNE, asignaciones familiares y RENATRE
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes obra social y FSR
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes INSSJyP
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes diferenciales
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Aportes personal regímenes especiales
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Contribuciones obra social y FSR
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de cálculo para Ley de riesgos del trabajo
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t>Base para el cálculo diferencial de aporte de Seg. Social</t>
-  </si>
-  <si>
-    <t>Base para el cálculo diferencial de contribuciones de Seg. Social</t>
-  </si>
-  <si>
-    <t>Base imponible 10</t>
-  </si>
-  <si>
-    <t>Importe a detraer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar diferenciales que sumen a la base imponible 1
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar diferenciales que sumen a la base imponible 2
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar diferencia en REM2 y el importe a detraer establecido  por la ley 27430. No puede ser menor al mínimo previsional vigente.
-SI la detracción es 0, se debe informar en 0.
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para informar el importe a detraer establecido por la ley 27430. 
-Formato: 13 dígitos enteros y 2 decimales. </t>
-  </si>
-  <si>
     <t>PERMANENTE VACUNO</t>
   </si>
   <si>
@@ -358,18 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-  </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,7 +385,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,12 +419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,107 +460,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AFC0FC1F-40C5-4399-9766-9EEA247E2CF3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AFC0FC1F-40C5-4399-9766-9EEA247E2CF3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -981,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83205A9D-0CEA-4714-8546-E299B9B69775}">
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +881,7 @@
     <col min="15" max="15" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,24 +898,123 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3">
+        <v>18</v>
+      </c>
+      <c r="T2" s="4">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3">
+        <v>20</v>
+      </c>
+      <c r="V2" s="4">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3">
+        <v>22</v>
+      </c>
+      <c r="X2" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -1075,21 +1059,8 @@
       <c r="AJ3" s="27"/>
       <c r="AK3" s="27"/>
       <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
     </row>
-    <row r="4" spans="1:51" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1204,47 +1175,8 @@
       <c r="AL4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AM4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY4" s="8" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="5" spans="1:51" s="17" customFormat="1" ht="241.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="17" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1262,7 @@
       <c r="AC5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AD5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="AE5" s="15" t="s">
@@ -1357,52 +1289,13 @@
       <c r="AL5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AM5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS5" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY5" s="15" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="6" spans="1:51" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>94</v>
+      <c r="B6" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="12">
         <v>20215465676</v>
@@ -1414,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H6" s="6">
         <v>30</v>
@@ -1464,7 +1357,7 @@
       <c r="AA6" s="6">
         <v>30</v>
       </c>
-      <c r="AB6" s="23"/>
+      <c r="AB6" s="22"/>
       <c r="AC6" s="18">
         <v>2</v>
       </c>
@@ -1495,55 +1388,16 @@
       <c r="AL6" s="18">
         <v>0</v>
       </c>
-      <c r="AM6" s="18">
-        <v>75931.360000000001</v>
-      </c>
-      <c r="AN6" s="18">
-        <v>75931.360000000001</v>
-      </c>
-      <c r="AO6" s="18">
-        <v>75931.360000000001</v>
-      </c>
-      <c r="AP6" s="18">
-        <v>75931.360000000001</v>
-      </c>
-      <c r="AQ6" s="18">
-        <v>75931.360000000001</v>
-      </c>
-      <c r="AR6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="18">
-        <v>75931.360000000001</v>
-      </c>
-      <c r="AU6" s="18">
-        <v>75931.360000000001</v>
-      </c>
-      <c r="AV6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="18">
-        <v>68927.679999999993</v>
-      </c>
-      <c r="AY6" s="19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:51" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="22"/>
-      <c r="AG7" s="24"/>
+    <row r="7" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="21"/>
+      <c r="AG7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:AY3"/>
+    <mergeCell ref="J3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
